--- a/Assignment 6 CIELAB/MacbethColorChecker.xlsx
+++ b/Assignment 6 CIELAB/MacbethColorChecker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmpocs/Google Drive mmpocs/Course 600/Project04 - Colorimetry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratheepkumarc/Documents/Development/Matlab/Principles-of-Color-Science/Assignment 6 CIELAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE86041-1853-C044-B2C9-826F4834B6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3DF020-ECAF-5443-AD9C-AE5CB5BB2A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="292"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Macbeth Color Checker Patches</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>wavelength</t>
   </si>
   <si>
-    <t>patch key at right --&gt;</t>
-  </si>
-  <si>
     <t>Patch Numbers</t>
-  </si>
-  <si>
-    <t>Data are from N. Ohta, "The Basis of Color Reproduction Engineering (Japanese)", published by Corona-sha Co of Japan in 1997</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -172,13 +163,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>500872</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -196,7 +187,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18110200" y="495300"/>
+          <a:off x="18110200" y="165100"/>
           <a:ext cx="4399772" cy="3124200"/>
           <a:chOff x="1656" y="26"/>
           <a:chExt cx="400" cy="246"/>
@@ -829,11 +820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -844,143 +835,283 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
         <v>4</v>
       </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>380</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.113</v>
+      </c>
+      <c r="E2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.123</v>
+      </c>
+      <c r="G2">
+        <v>0.11</v>
+      </c>
+      <c r="H2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="L2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.06</v>
+      </c>
+      <c r="N2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="S2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="T2">
+        <v>0.153</v>
+      </c>
+      <c r="U2">
+        <v>0.15</v>
+      </c>
+      <c r="V2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.113</v>
+      </c>
+      <c r="X2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Y2">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="1">
+        <v>385</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0.12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0.152</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>0.12</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>0.108</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>0.115</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="O3">
-        <v>14</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q3">
-        <v>16</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="R3">
-        <v>17</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="S3">
-        <v>18</v>
+        <v>0.11</v>
       </c>
       <c r="T3">
-        <v>19</v>
+        <v>0.189</v>
       </c>
       <c r="U3">
-        <v>20</v>
+        <v>0.184</v>
       </c>
       <c r="V3">
-        <v>21</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="W3">
-        <v>22</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="X3">
-        <v>23</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Y3">
-        <v>24</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B4" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C4">
-        <v>0.10299999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D4">
-        <v>0.113</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="E4">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F4">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4">
         <v>0.123</v>
       </c>
-      <c r="G4">
-        <v>0.11</v>
-      </c>
-      <c r="H4">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I4">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="K4">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="L4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="M4">
-        <v>0.06</v>
-      </c>
-      <c r="N4">
-        <v>6.9000000000000006E-2</v>
-      </c>
       <c r="O4">
-        <v>5.5E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="P4">
         <v>5.1999999999999998E-2</v>
@@ -989,75 +1120,75 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="R4">
-        <v>0.11799999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="S4">
-        <v>9.2999999999999999E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="T4">
-        <v>0.153</v>
+        <v>0.245</v>
       </c>
       <c r="U4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="W4">
         <v>0.15</v>
       </c>
-      <c r="V4">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="W4">
-        <v>0.113</v>
-      </c>
       <c r="X4">
-        <v>7.3999999999999996E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="Y4">
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B5" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C5">
-        <v>0.12</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D5">
-        <v>0.13800000000000001</v>
+        <v>0.219</v>
       </c>
       <c r="E5">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F5">
-        <v>0.152</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="G5">
-        <v>0.13300000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="H5">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="I5">
-        <v>0.12</v>
+        <v>0.189</v>
       </c>
       <c r="J5">
-        <v>0.108</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K5">
-        <v>0.115</v>
+        <v>0.157</v>
       </c>
       <c r="L5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.114</v>
+      </c>
+      <c r="O5">
         <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M5">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="N5">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="O5">
-        <v>5.6000000000000001E-2</v>
       </c>
       <c r="P5">
         <v>5.1999999999999998E-2</v>
@@ -1066,407 +1197,407 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="R5">
-        <v>0.14199999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="S5">
-        <v>0.11</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="T5">
-        <v>0.189</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="U5">
-        <v>0.184</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="V5">
-        <v>0.16700000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="W5">
-        <v>0.13100000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="X5">
-        <v>7.9000000000000001E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Y5">
-        <v>3.3000000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1">
-        <v>5.5E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>0.14099999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="D6">
-        <v>0.17399999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="E6">
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F6">
-        <v>0.19700000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G6">
-        <v>0.16700000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="H6">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="I6">
-        <v>0.15</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="J6">
-        <v>0.123</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K6">
-        <v>0.13500000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="L6">
-        <v>5.8999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M6">
-        <v>6.3E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N6">
-        <v>9.6000000000000002E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="O6">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="P6">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q6">
-        <v>5.3999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="R6">
-        <v>0.17899999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="S6">
-        <v>0.13400000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="T6">
-        <v>0.245</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="U6">
-        <v>0.23499999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="V6">
-        <v>0.20599999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="W6">
-        <v>0.15</v>
+        <v>0.183</v>
       </c>
       <c r="X6">
-        <v>8.4000000000000005E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="Y6">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B7" s="1">
-        <v>0.06</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C7">
-        <v>0.16300000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="D7">
-        <v>0.219</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F7">
-        <v>0.25800000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="G7">
-        <v>0.20799999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H7">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="I7">
-        <v>0.189</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="J7">
-        <v>0.13500000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K7">
-        <v>0.157</v>
+        <v>0.191</v>
       </c>
       <c r="L7">
-        <v>5.8999999999999997E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="M7">
-        <v>6.4000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N7">
-        <v>0.114</v>
+        <v>0.156</v>
       </c>
       <c r="O7">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="P7">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q7">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="R7">
-        <v>0.22800000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="S7">
-        <v>0.16400000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="T7">
-        <v>0.31900000000000001</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="U7">
-        <v>0.29899999999999999</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="V7">
-        <v>0.249</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="W7">
-        <v>0.16900000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="X7">
-        <v>8.7999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y7">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B8" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C8">
-        <v>0.182</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D8">
-        <v>0.26600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F8">
-        <v>0.32800000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="G8">
-        <v>0.252</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="H8">
-        <v>5.3999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I8">
-        <v>0.23100000000000001</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="J8">
         <v>0.14399999999999999</v>
       </c>
       <c r="K8">
-        <v>0.17699999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="L8">
-        <v>0.06</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="M8">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="N8">
-        <v>0.13600000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="O8">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q8">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="R8">
-        <v>0.28299999999999997</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="S8">
-        <v>0.19500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="T8">
-        <v>0.40899999999999997</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="U8">
-        <v>0.372</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="V8">
-        <v>0.28899999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="W8">
-        <v>0.183</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="X8">
-        <v>9.0999999999999998E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Y8">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B9" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C9">
-        <v>0.192</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="E9">
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
-        <v>0.38500000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="G9">
-        <v>0.28399999999999997</v>
+        <v>0.314</v>
       </c>
       <c r="H9">
-        <v>5.3999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I9">
-        <v>0.26800000000000002</v>
+        <v>0.311</v>
       </c>
       <c r="J9">
-        <v>0.14499999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="K9">
-        <v>0.191</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="L9">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="M9">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="N9">
-        <v>0.156</v>
+        <v>0.193</v>
       </c>
       <c r="O9">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P9">
-        <v>5.0999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q9">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="R9">
-        <v>0.32200000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="S9">
-        <v>0.22</v>
+        <v>0.249</v>
       </c>
       <c r="T9">
-        <v>0.53600000000000003</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="U9">
-        <v>0.45900000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="V9">
-        <v>0.32400000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="W9">
-        <v>0.193</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="X9">
-        <v>9.2999999999999999E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Y9">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B10" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>0.19700000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D10">
-        <v>0.32</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="E10">
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F10">
-        <v>0.41799999999999998</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="G10">
-        <v>0.30299999999999999</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="H10">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I10">
-        <v>0.29299999999999998</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="J10">
-        <v>0.14399999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="K10">
-        <v>0.19900000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="L10">
-        <v>6.0999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="M10">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="N10">
-        <v>0.17499999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="O10">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="P10">
-        <v>0.05</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q10">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="R10">
-        <v>0.34300000000000003</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="S10">
-        <v>0.23799999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="T10">
-        <v>0.67100000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="U10">
-        <v>0.52900000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V10">
-        <v>0.34599999999999997</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="W10">
-        <v>0.19900000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="X10">
         <v>9.4E-2</v>
@@ -1477,73 +1608,73 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B11" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C11">
-        <v>0.19900000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D11">
-        <v>0.33</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F11">
-        <v>0.437</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="G11">
-        <v>0.314</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H11">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I11">
-        <v>0.311</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J11">
-        <v>0.14099999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="K11">
-        <v>0.20300000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="L11">
-        <v>6.0999999999999999E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="M11">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="N11">
-        <v>0.193</v>
+        <v>0.224</v>
       </c>
       <c r="O11">
-        <v>5.8999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="P11">
-        <v>0.05</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q11">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="R11">
-        <v>0.35399999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="S11">
-        <v>0.249</v>
+        <v>0.27</v>
       </c>
       <c r="T11">
-        <v>0.77200000000000002</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="U11">
-        <v>0.56399999999999995</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="V11">
-        <v>0.35399999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="W11">
-        <v>0.20100000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X11">
         <v>9.4E-2</v>
@@ -1554,73 +1685,73 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B12" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C12">
-        <v>0.20100000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D12">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G12">
         <v>0.33600000000000002</v>
-      </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.32200000000000001</v>
       </c>
       <c r="H12">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I12">
-        <v>0.32400000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="J12">
-        <v>0.13800000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K12">
-        <v>0.20599999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L12">
-        <v>6.2E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M12">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="N12">
-        <v>0.20799999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="O12">
-        <v>5.8999999999999997E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="P12">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q12">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="R12">
+        <v>0.35</v>
+      </c>
+      <c r="S12">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="T12">
+        <v>0.878</v>
+      </c>
+      <c r="U12">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="V12">
         <v>0.35899999999999999</v>
       </c>
-      <c r="S12">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="T12">
-        <v>0.84</v>
-      </c>
-      <c r="U12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="V12">
-        <v>0.35699999999999998</v>
-      </c>
       <c r="W12">
-        <v>0.20200000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X12">
         <v>9.4E-2</v>
@@ -1631,76 +1762,76 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B13" s="1">
-        <v>6.2E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C13">
-        <v>0.20300000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D13">
         <v>0.33700000000000002</v>
       </c>
       <c r="E13">
-        <v>5.0999999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F13">
-        <v>0.44800000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G13">
-        <v>0.32900000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H13">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I13">
-        <v>0.33500000000000002</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="J13">
-        <v>0.13400000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K13">
-        <v>0.19800000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="L13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="O13">
         <v>6.3E-2</v>
-      </c>
-      <c r="M13">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="N13">
-        <v>0.224</v>
-      </c>
-      <c r="O13">
-        <v>0.06</v>
       </c>
       <c r="P13">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q13">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="R13">
-        <v>0.35699999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="S13">
-        <v>0.27</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="T13">
-        <v>0.86799999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="U13">
-        <v>0.58399999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="V13">
-        <v>0.35799999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="W13">
-        <v>0.20300000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="X13">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y13">
         <v>3.5999999999999997E-2</v>
@@ -1708,49 +1839,49 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B14" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C14">
-        <v>0.20499999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D14">
-        <v>0.33700000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E14">
-        <v>5.1999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F14">
-        <v>0.44800000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G14">
-        <v>0.33600000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="H14">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I14">
-        <v>0.34799999999999998</v>
+        <v>0.373</v>
       </c>
       <c r="J14">
-        <v>0.13200000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="K14">
-        <v>0.19</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="L14">
-        <v>6.4000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="M14">
-        <v>6.4000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N14">
-        <v>0.24399999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O14">
-        <v>6.2E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P14">
         <v>4.9000000000000002E-2</v>
@@ -1759,173 +1890,173 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="R14">
-        <v>0.35</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="S14">
-        <v>0.28100000000000003</v>
+        <v>0.315</v>
       </c>
       <c r="T14">
-        <v>0.878</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="U14">
-        <v>0.58499999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="V14">
-        <v>0.35899999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="W14">
-        <v>0.20300000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="X14">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y14">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B15" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>0.20799999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="D15">
-        <v>0.33700000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E15">
-        <v>5.2999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>0.44700000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="G15">
-        <v>0.34399999999999997</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="H15">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I15">
-        <v>0.36099999999999999</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="J15">
-        <v>0.13200000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="K15">
-        <v>0.17899999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="L15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M15">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="M15">
-        <v>6.5000000000000002E-2</v>
-      </c>
       <c r="N15">
-        <v>0.26500000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="O15">
-        <v>6.3E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P15">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q15">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="R15">
-        <v>0.33900000000000002</v>
+        <v>0.313</v>
       </c>
       <c r="S15">
-        <v>0.29599999999999999</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="T15">
-        <v>0.88200000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="U15">
-        <v>0.58699999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="V15">
-        <v>0.36</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="W15">
-        <v>0.20399999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="X15">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y15">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B16" s="1">
-        <v>5.5E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C16">
-        <v>0.21199999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="D16">
-        <v>0.33500000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E16">
-        <v>5.3999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F16">
-        <v>0.44400000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="G16">
-        <v>0.35299999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="H16">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I16">
-        <v>0.373</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="J16">
-        <v>0.13100000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="K16">
-        <v>0.16800000000000001</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="L16">
-        <v>6.8000000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M16">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="N16">
-        <v>0.28999999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="O16">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P16">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q16">
-        <v>5.2999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R16">
-        <v>0.32700000000000001</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="S16">
-        <v>0.315</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="T16">
-        <v>0.88300000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U16">
-        <v>0.58699999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="V16">
-        <v>0.36099999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="W16">
         <v>0.20499999999999999</v>
@@ -1939,25 +2070,25 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B17" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C17">
-        <v>0.217</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D17">
-        <v>0.33400000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E17">
-        <v>5.6000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F17">
-        <v>0.44</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="G17">
-        <v>0.36299999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="H17">
         <v>5.1999999999999998E-2</v>
@@ -1966,49 +2097,49 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="J17">
-        <v>0.13100000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="K17">
-        <v>0.156</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="L17">
-        <v>7.0999999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="M17">
-        <v>6.6000000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N17">
-        <v>0.316</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="O17">
-        <v>6.7000000000000004E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="P17">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q17">
-        <v>5.3999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="R17">
-        <v>0.313</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="S17">
-        <v>0.33400000000000002</v>
+        <v>0.37</v>
       </c>
       <c r="T17">
-        <v>0.88500000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U17">
-        <v>0.58799999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="V17">
-        <v>0.36199999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="W17">
         <v>0.20499999999999999</v>
       </c>
       <c r="X17">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Y17">
         <v>3.5000000000000003E-2</v>
@@ -2016,76 +2147,76 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B18" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C18">
-        <v>0.224</v>
+        <v>0.24</v>
       </c>
       <c r="D18">
-        <v>0.33100000000000002</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="E18">
-        <v>5.8000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F18">
-        <v>0.434</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="G18">
-        <v>0.375</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H18">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I18">
-        <v>0.38700000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="J18">
-        <v>0.129</v>
+        <v>0.126</v>
       </c>
       <c r="K18">
-        <v>0.14399999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="L18">
-        <v>7.4999999999999997E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="M18">
-        <v>6.7000000000000004E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N18">
-        <v>0.33500000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="O18">
-        <v>7.0000000000000007E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="P18">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q18">
-        <v>5.5E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="R18">
-        <v>0.29799999999999999</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="S18">
-        <v>0.35199999999999998</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="T18">
-        <v>0.88600000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U18">
-        <v>0.58799999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="V18">
-        <v>0.36199999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="W18">
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="X18">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Y18">
         <v>3.5000000000000003E-2</v>
@@ -2093,73 +2224,73 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B19" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C19">
-        <v>0.23100000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="D19">
-        <v>0.32700000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="E19">
-        <v>0.06</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F19">
-        <v>0.42799999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G19">
-        <v>0.39</v>
+        <v>0.433</v>
       </c>
       <c r="H19">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I19">
-        <v>0.38300000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="J19">
-        <v>0.128</v>
+        <v>0.126</v>
       </c>
       <c r="K19">
-        <v>0.13200000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="L19">
-        <v>7.9000000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M19">
-        <v>6.8000000000000005E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="N19">
-        <v>0.34200000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="O19">
-        <v>7.3999999999999996E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="P19">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Q19">
-        <v>5.6000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R19">
-        <v>0.28199999999999997</v>
+        <v>0.253</v>
       </c>
       <c r="S19">
-        <v>0.37</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="T19">
-        <v>0.88600000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="U19">
-        <v>0.58699999999999997</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="V19">
-        <v>0.36099999999999999</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W19">
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="X19">
         <v>9.4E-2</v>
@@ -2170,73 +2301,73 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B20" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="C20">
-        <v>0.24</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D20">
-        <v>0.32200000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="E20">
-        <v>6.0999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F20">
-        <v>0.42099999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G20">
-        <v>0.40799999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="H20">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I20">
-        <v>0.374</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="J20">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="K20">
-        <v>0.12</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="L20">
-        <v>8.5000000000000006E-2</v>
+        <v>0.104</v>
       </c>
       <c r="M20">
-        <v>6.9000000000000006E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="N20">
-        <v>0.33800000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="O20">
-        <v>7.8E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="P20">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Q20">
-        <v>5.8999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R20">
-        <v>0.26700000000000002</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="S20">
-        <v>0.39100000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="T20">
-        <v>0.88700000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="U20">
-        <v>0.58599999999999997</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="V20">
-        <v>0.36099999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="W20">
-        <v>0.20399999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X20">
         <v>9.4E-2</v>
@@ -2247,76 +2378,76 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B21" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C21">
-        <v>0.251</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D21">
-        <v>0.316</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="E21">
-        <v>6.3E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F21">
-        <v>0.41299999999999998</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G21">
-        <v>0.433</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="H21">
-        <v>5.1999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="I21">
-        <v>0.36099999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="J21">
-        <v>0.126</v>
+        <v>0.123</v>
       </c>
       <c r="K21">
-        <v>0.11</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="L21">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O21">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P21">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q21">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="M21">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="N21">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="O21">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P21">
-        <v>4.7E-2</v>
-      </c>
-      <c r="Q21">
-        <v>6.5000000000000002E-2</v>
-      </c>
       <c r="R21">
-        <v>0.253</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="S21">
-        <v>0.41399999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="T21">
         <v>0.88800000000000001</v>
       </c>
       <c r="U21">
-        <v>0.58499999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="V21">
-        <v>0.35899999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="W21">
-        <v>0.20399999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X21">
-        <v>9.4E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y21">
         <v>3.5000000000000003E-2</v>
@@ -2324,224 +2455,224 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B22" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C22">
-        <v>0.26200000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D22">
-        <v>0.31</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="E22">
-        <v>6.4000000000000001E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F22">
-        <v>0.40500000000000003</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G22">
-        <v>0.46</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H22">
-        <v>5.2999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I22">
-        <v>0.34499999999999997</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="J22">
-        <v>0.125</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="K22">
-        <v>0.10100000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L22">
-        <v>0.104</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="M22">
-        <v>7.6999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="N22">
-        <v>0.30199999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="O22">
-        <v>9.0999999999999998E-2</v>
+        <v>0.113</v>
       </c>
       <c r="P22">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q22">
-        <v>7.4999999999999997E-2</v>
+        <v>0.121</v>
       </c>
       <c r="R22">
-        <v>0.23899999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="S22">
-        <v>0.434</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="T22">
         <v>0.88800000000000001</v>
       </c>
       <c r="U22">
-        <v>0.58299999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="V22">
-        <v>0.35799999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="W22">
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="X22">
-        <v>9.4E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y22">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B23" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C23">
-        <v>0.27300000000000002</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D23">
-        <v>0.30199999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E23">
-        <v>6.5000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F23">
-        <v>0.39400000000000002</v>
+        <v>0.372</v>
       </c>
       <c r="G23">
-        <v>0.49199999999999999</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="H23">
-        <v>5.3999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I23">
-        <v>0.32500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J23">
-        <v>0.123</v>
+        <v>0.114</v>
       </c>
       <c r="K23">
-        <v>9.2999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="L23">
-        <v>0.11799999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="M23">
-        <v>8.4000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.27300000000000002</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="O23">
-        <v>0.10100000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="P23">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q23">
-        <v>9.2999999999999999E-2</v>
+        <v>0.157</v>
       </c>
       <c r="R23">
-        <v>0.22500000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="S23">
-        <v>0.44900000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="T23">
         <v>0.88800000000000001</v>
       </c>
       <c r="U23">
-        <v>0.58199999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V23">
-        <v>0.35799999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="W23">
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="X23">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y23">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B24" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C24">
-        <v>0.28199999999999997</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D24">
-        <v>0.29299999999999998</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E24">
-        <v>6.7000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F24">
-        <v>0.38100000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="G24">
-        <v>0.52300000000000002</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="H24">
-        <v>5.5E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="I24">
-        <v>0.30099999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="J24">
-        <v>0.11899999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="K24">
-        <v>8.5999999999999993E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L24">
-        <v>0.13500000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="M24">
-        <v>9.1999999999999998E-2</v>
+        <v>0.107</v>
       </c>
       <c r="N24">
-        <v>0.23899999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="O24">
-        <v>0.113</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P24">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q24">
-        <v>0.121</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="R24">
-        <v>0.20899999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="S24">
-        <v>0.45800000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="T24">
         <v>0.88800000000000001</v>
       </c>
       <c r="U24">
-        <v>0.58099999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V24">
-        <v>0.35699999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="W24">
         <v>0.20200000000000001</v>
@@ -2555,61 +2686,61 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B25" s="1">
-        <v>5.5E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C25">
-        <v>0.28899999999999998</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D25">
-        <v>0.28499999999999998</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E25">
-        <v>6.8000000000000005E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F25">
-        <v>0.372</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="G25">
-        <v>0.54800000000000004</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="H25">
-        <v>5.6000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I25">
-        <v>0.27500000000000002</v>
+        <v>0.223</v>
       </c>
       <c r="J25">
-        <v>0.114</v>
+        <v>0.105</v>
       </c>
       <c r="K25">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L25">
+        <v>0.221</v>
+      </c>
+      <c r="M25">
+        <v>0.115</v>
+      </c>
+      <c r="N25">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O25">
         <v>0.157</v>
       </c>
-      <c r="M25">
-        <v>0.1</v>
-      </c>
-      <c r="N25">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.125</v>
-      </c>
       <c r="P25">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q25">
-        <v>0.157</v>
+        <v>0.252</v>
       </c>
       <c r="R25">
-        <v>0.19500000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="S25">
-        <v>0.46100000000000002</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="T25">
         <v>0.88800000000000001</v>
@@ -2624,7 +2755,7 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="X25">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Y25">
         <v>3.4000000000000002E-2</v>
@@ -2632,64 +2763,64 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B26" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C26">
-        <v>0.29299999999999998</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D26">
-        <v>0.27600000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="E26">
-        <v>7.0000000000000007E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F26">
-        <v>0.36199999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G26">
-        <v>0.56599999999999995</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="H26">
-        <v>5.7000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="I26">
-        <v>0.247</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="J26">
-        <v>0.109</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="K26">
-        <v>7.4999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="L26">
-        <v>0.185</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="M26">
-        <v>0.107</v>
+        <v>0.123</v>
       </c>
       <c r="N26">
-        <v>0.17199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="O26">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="P26">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q26">
-        <v>0.20200000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="R26">
-        <v>0.182</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="S26">
-        <v>0.45700000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="T26">
-        <v>0.88800000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U26">
         <v>0.57999999999999996</v>
@@ -2701,7 +2832,7 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="X26">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Y26">
         <v>3.4000000000000002E-2</v>
@@ -2709,64 +2840,64 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B27" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C27">
-        <v>0.29599999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="D27">
-        <v>0.26800000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="E27">
-        <v>7.1999999999999995E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F27">
-        <v>0.35199999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G27">
-        <v>0.57699999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H27">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I27">
-        <v>0.223</v>
+        <v>0.184</v>
       </c>
       <c r="J27">
-        <v>0.105</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K27">
-        <v>7.0000000000000007E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="L27">
-        <v>0.221</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="M27">
-        <v>0.115</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="N27">
-        <v>0.14399999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="O27">
-        <v>0.157</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="P27">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q27">
-        <v>0.252</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="R27">
-        <v>0.17199999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="S27">
-        <v>0.44700000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="T27">
-        <v>0.88800000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U27">
         <v>0.57999999999999996</v>
@@ -2778,7 +2909,7 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="X27">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y27">
         <v>3.4000000000000002E-2</v>
@@ -2786,61 +2917,61 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B28" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.106</v>
+      </c>
+      <c r="F28">
+        <v>0.314</v>
+      </c>
+      <c r="G28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H28">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="C28">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="D28">
-        <v>0.26</v>
-      </c>
-      <c r="E28">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="G28">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="H28">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="I28">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="J28">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="K28">
-        <v>6.7000000000000004E-2</v>
-      </c>
       <c r="L28">
-        <v>0.26900000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="M28">
-        <v>0.123</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="N28">
-        <v>0.12</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O28">
-        <v>0.18</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="P28">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q28">
-        <v>0.30299999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="R28">
-        <v>0.16300000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S28">
-        <v>0.433</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="T28">
         <v>0.88700000000000001</v>
@@ -2855,7 +2986,7 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="X28">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y28">
         <v>3.4000000000000002E-2</v>
@@ -2863,67 +2994,67 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B29" s="1">
-        <v>6.2E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C29">
-        <v>0.31</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D29">
-        <v>0.251</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E29">
-        <v>8.7999999999999995E-2</v>
+        <v>0.13</v>
       </c>
       <c r="F29">
-        <v>0.33</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="G29">
-        <v>0.58299999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="H29">
-        <v>6.4000000000000001E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="I29">
-        <v>0.184</v>
+        <v>0.152</v>
       </c>
       <c r="J29">
-        <v>0.10199999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="K29">
-        <v>6.3E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="L29">
-        <v>0.32600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="M29">
-        <v>0.13300000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="N29">
-        <v>0.10100000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="O29">
-        <v>0.20799999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="P29">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q29">
-        <v>0.35099999999999998</v>
+        <v>0.436</v>
       </c>
       <c r="R29">
-        <v>0.155</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="S29">
-        <v>0.41399999999999998</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="T29">
         <v>0.88700000000000001</v>
       </c>
       <c r="U29">
-        <v>0.57999999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="V29">
         <v>0.35599999999999998</v>
@@ -2940,70 +3071,70 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B30" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C30">
-        <v>0.32100000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D30">
-        <v>0.24299999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E30">
-        <v>0.106</v>
+        <v>0.155</v>
       </c>
       <c r="F30">
-        <v>0.314</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="G30">
-        <v>0.57999999999999996</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="H30">
-        <v>6.8000000000000005E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I30">
-        <v>0.16700000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K30">
-        <v>6.0999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="L30">
-        <v>0.38400000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="M30">
-        <v>0.14599999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="N30">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O30">
-        <v>0.24399999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="P30">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q30">
-        <v>0.39400000000000002</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="R30">
-        <v>0.14599999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="S30">
-        <v>0.39200000000000002</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="T30">
         <v>0.88700000000000001</v>
       </c>
       <c r="U30">
-        <v>0.57999999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="V30">
-        <v>0.35599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="W30">
         <v>0.20200000000000001</v>
@@ -3017,70 +3148,70 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B31" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C31">
-        <v>0.32600000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="D31">
-        <v>0.23400000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="E31">
-        <v>0.13</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F31">
-        <v>0.29399999999999998</v>
+        <v>0.249</v>
       </c>
       <c r="G31">
-        <v>0.57599999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H31">
-        <v>7.5999999999999998E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="I31">
-        <v>0.152</v>
+        <v>0.125</v>
       </c>
       <c r="J31">
-        <v>9.7000000000000003E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="K31">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="N31">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L31">
-        <v>0.44</v>
-      </c>
-      <c r="M31">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="N31">
-        <v>7.3999999999999996E-2</v>
-      </c>
       <c r="O31">
-        <v>0.28599999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="P31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q31">
-        <v>0.436</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="R31">
-        <v>0.13500000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="S31">
-        <v>0.36599999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="T31">
         <v>0.88700000000000001</v>
       </c>
       <c r="U31">
-        <v>0.58099999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="V31">
-        <v>0.35599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="W31">
         <v>0.20200000000000001</v>
@@ -3094,73 +3225,73 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B32" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C32">
-        <v>0.32200000000000001</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D32">
-        <v>0.22500000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E32">
-        <v>0.155</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F32">
-        <v>0.27100000000000002</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G32">
-        <v>0.56899999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="H32">
-        <v>8.5999999999999993E-2</v>
+        <v>0.12</v>
       </c>
       <c r="I32">
-        <v>0.13700000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J32">
-        <v>9.4E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="K32">
-        <v>5.8000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L32">
-        <v>0.48399999999999999</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="M32">
-        <v>0.193</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N32">
-        <v>6.6000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="O32">
-        <v>0.32400000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P32">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q32">
-        <v>0.47499999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="R32">
-        <v>0.124</v>
+        <v>0.106</v>
       </c>
       <c r="S32">
-        <v>0.33900000000000002</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="T32">
         <v>0.88700000000000001</v>
       </c>
       <c r="U32">
-        <v>0.58099999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="V32">
         <v>0.35699999999999998</v>
       </c>
       <c r="W32">
-        <v>0.20200000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X32">
         <v>9.2999999999999999E-2</v>
@@ -3171,61 +3302,61 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B33" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C33">
-        <v>0.31</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D33">
-        <v>0.215</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="E33">
-        <v>0.17299999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="F33">
-        <v>0.249</v>
+        <v>0.219</v>
       </c>
       <c r="G33">
-        <v>0.56000000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="H33">
-        <v>0.10100000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I33">
-        <v>0.125</v>
+        <v>0.11</v>
       </c>
       <c r="J33">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K33">
-        <v>5.6000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L33">
-        <v>0.51600000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="M33">
-        <v>0.22900000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="N33">
-        <v>5.8999999999999997E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="O33">
-        <v>0.35099999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P33">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q33">
-        <v>0.51200000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="R33">
-        <v>0.113</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="S33">
-        <v>0.31</v>
+        <v>0.255</v>
       </c>
       <c r="T33">
         <v>0.88700000000000001</v>
@@ -3234,10 +3365,10 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="V33">
-        <v>0.35699999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="W33">
-        <v>0.20200000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X33">
         <v>9.2999999999999999E-2</v>
@@ -3248,70 +3379,70 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B34" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C34">
-        <v>0.29799999999999999</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D34">
-        <v>0.20799999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E34">
-        <v>0.18099999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F34">
-        <v>0.23100000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="G34">
-        <v>0.54900000000000004</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="H34">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I34">
-        <v>0.11600000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="J34">
-        <v>8.8999999999999996E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K34">
-        <v>5.3999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L34">
-        <v>0.53400000000000003</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="M34">
-        <v>0.27300000000000002</v>
+        <v>0.374</v>
       </c>
       <c r="N34">
-        <v>5.3999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O34">
-        <v>0.36299999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="P34">
-        <v>4.3999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q34">
-        <v>0.54400000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="R34">
-        <v>0.106</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="S34">
-        <v>0.28199999999999997</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="T34">
         <v>0.88700000000000001</v>
       </c>
       <c r="U34">
-        <v>0.58199999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="V34">
-        <v>0.35699999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="W34">
         <v>0.20300000000000001</v>
@@ -3325,67 +3456,67 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B35" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C35">
-        <v>0.29099999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D35">
-        <v>0.20300000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E35">
-        <v>0.182</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F35">
-        <v>0.219</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G35">
-        <v>0.53500000000000003</v>
+        <v>0.501</v>
       </c>
       <c r="H35">
-        <v>0.14299999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="I35">
-        <v>0.11</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="J35">
-        <v>0.09</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="K35">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L35">
-        <v>0.54200000000000004</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="M35">
-        <v>0.32300000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="N35">
-        <v>5.0999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="O35">
-        <v>0.36299999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="P35">
-        <v>4.3999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q35">
-        <v>0.57199999999999995</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="R35">
-        <v>0.10199999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="S35">
-        <v>0.255</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="T35">
-        <v>0.88700000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U35">
-        <v>0.58199999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="V35">
         <v>0.35799999999999998</v>
@@ -3402,64 +3533,64 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B36" s="1">
-        <v>7.5999999999999998E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C36">
-        <v>0.29199999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
-        <v>0.19800000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="E36">
-        <v>0.17699999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="F36">
-        <v>0.21099999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G36">
-        <v>0.51900000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="H36">
-        <v>0.17</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="I36">
-        <v>0.106</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="J36">
-        <v>9.1999999999999998E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K36">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L36">
-        <v>0.54500000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="M36">
-        <v>0.374</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="N36">
-        <v>4.8000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O36">
-        <v>0.35499999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="P36">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Q36">
-        <v>0.59699999999999998</v>
+        <v>0.63</v>
       </c>
       <c r="R36">
-        <v>0.10199999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="S36">
-        <v>0.22800000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="T36">
-        <v>0.88700000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U36">
         <v>0.58299999999999996</v>
@@ -3479,67 +3610,67 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B37" s="1">
-        <v>7.8E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C37">
-        <v>0.29699999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D37">
-        <v>0.19500000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="E37">
-        <v>0.16800000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F37">
-        <v>0.20899999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="G37">
-        <v>0.501</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="H37">
-        <v>0.19800000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="I37">
-        <v>0.10299999999999999</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J37">
-        <v>9.6000000000000002E-2</v>
+        <v>0.106</v>
       </c>
       <c r="K37">
-        <v>5.1999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L37">
-        <v>0.54100000000000004</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="M37">
-        <v>0.41799999999999998</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="N37">
-        <v>4.5999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="O37">
-        <v>0.34200000000000003</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="P37">
-        <v>4.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q37">
-        <v>0.61499999999999999</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="R37">
-        <v>0.105</v>
+        <v>0.107</v>
       </c>
       <c r="S37">
-        <v>0.20399999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="T37">
-        <v>0.88600000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U37">
-        <v>0.58299999999999996</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="V37">
         <v>0.35799999999999998</v>
@@ -3548,7 +3679,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="X37">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Y37">
         <v>3.4000000000000002E-2</v>
@@ -3556,70 +3687,70 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B38" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C38">
-        <v>0.3</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D38">
-        <v>0.191</v>
+        <v>0.183</v>
       </c>
       <c r="E38">
-        <v>0.157</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="F38">
-        <v>0.20899999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="G38">
-        <v>0.48</v>
+        <v>0.436</v>
       </c>
       <c r="H38">
-        <v>0.22800000000000001</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="I38">
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J38">
-        <v>0.10199999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="K38">
-        <v>5.2999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L38">
-        <v>0.53300000000000003</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="M38">
-        <v>0.45600000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="N38">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="O38">
-        <v>0.32300000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="P38">
-        <v>4.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q38">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="R38">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="S38">
-        <v>0.18</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="T38">
-        <v>0.88600000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U38">
-        <v>0.58299999999999996</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="V38">
-        <v>0.35799999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W38">
         <v>0.20300000000000001</v>
@@ -3628,155 +3759,155 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y38">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B39" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="C39">
-        <v>0.29799999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D39">
-        <v>0.188</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E39">
-        <v>0.14699999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="F39">
-        <v>0.20699999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G39">
-        <v>0.45800000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="H39">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I39">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.109</v>
+      </c>
+      <c r="K39">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L39">
+        <v>0.501</v>
+      </c>
+      <c r="M39">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="N39">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O39">
         <v>0.26</v>
       </c>
-      <c r="I39">
-        <v>9.4E-2</v>
-      </c>
-      <c r="J39">
-        <v>0.106</v>
-      </c>
-      <c r="K39">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="L39">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="M39">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="N39">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O39">
-        <v>0.30299999999999999</v>
-      </c>
       <c r="P39">
-        <v>4.8000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="Q39">
-        <v>0.64500000000000002</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="R39">
         <v>0.107</v>
       </c>
       <c r="S39">
-        <v>0.159</v>
+        <v>0.126</v>
       </c>
       <c r="T39">
         <v>0.88700000000000001</v>
       </c>
       <c r="U39">
-        <v>0.58399999999999996</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="V39">
-        <v>0.35799999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W39">
         <v>0.20300000000000001</v>
       </c>
       <c r="X39">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y39">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B40" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C40">
-        <v>0.29499999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D40">
-        <v>0.183</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E40">
-        <v>0.13700000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="F40">
-        <v>0.20100000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G40">
-        <v>0.436</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="H40">
-        <v>0.29699999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="I40">
-        <v>0.09</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J40">
-        <v>0.108</v>
+        <v>0.112</v>
       </c>
       <c r="K40">
-        <v>5.5E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L40">
-        <v>0.51300000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="M40">
-        <v>0.51200000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="N40">
-        <v>4.2999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="O40">
-        <v>0.28100000000000003</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="P40">
-        <v>0.05</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q40">
-        <v>0.66</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="R40">
-        <v>0.106</v>
+        <v>0.112</v>
       </c>
       <c r="S40">
-        <v>0.14099999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="T40">
-        <v>0.88700000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="U40">
-        <v>0.58399999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="V40">
-        <v>0.35899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="W40">
-        <v>0.20300000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="X40">
         <v>9.2999999999999999E-2</v>
@@ -3787,73 +3918,73 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="B41" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>0.107</v>
       </c>
       <c r="C41">
-        <v>0.29499999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D41">
-        <v>0.17699999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E41">
-        <v>0.129</v>
+        <v>0.125</v>
       </c>
       <c r="F41">
-        <v>0.19600000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="G41">
-        <v>0.41399999999999998</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="H41">
-        <v>0.33800000000000002</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="I41">
-        <v>8.5999999999999993E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J41">
-        <v>0.109</v>
+        <v>0.126</v>
       </c>
       <c r="K41">
-        <v>5.5E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L41">
-        <v>0.501</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="M41">
-        <v>0.53400000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N41">
-        <v>4.2000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="O41">
-        <v>0.26</v>
+        <v>0.217</v>
       </c>
       <c r="P41">
-        <v>5.2999999999999999E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Q41">
-        <v>0.67300000000000004</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="R41">
-        <v>0.107</v>
+        <v>0.123</v>
       </c>
       <c r="S41">
-        <v>0.126</v>
+        <v>0.104</v>
       </c>
       <c r="T41">
-        <v>0.88700000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="U41">
-        <v>0.58499999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="V41">
-        <v>0.35899999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="W41">
-        <v>0.20300000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="X41">
         <v>9.2999999999999999E-2</v>
@@ -3864,73 +3995,73 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B42" s="1">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="C42">
-        <v>0.30499999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D42">
-        <v>0.17199999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E42">
-        <v>0.126</v>
+        <v>0.122</v>
       </c>
       <c r="F42">
-        <v>0.19600000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="G42">
-        <v>0.39200000000000002</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="H42">
-        <v>0.38</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="I42">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="J42">
-        <v>0.112</v>
+        <v>0.157</v>
       </c>
       <c r="K42">
-        <v>5.3999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L42">
-        <v>0.48699999999999999</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="M42">
-        <v>0.55400000000000005</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="N42">
-        <v>4.1000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O42">
-        <v>0.23799999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="P42">
-        <v>5.7000000000000002E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Q42">
-        <v>0.68600000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="R42">
-        <v>0.112</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="S42">
-        <v>0.114</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="T42">
-        <v>0.88800000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U42">
-        <v>0.58599999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="V42">
-        <v>0.36</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="W42">
-        <v>0.20399999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="X42">
         <v>9.2999999999999999E-2</v>
@@ -3941,73 +4072,73 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B43" s="1">
-        <v>0.107</v>
+        <v>0.122</v>
       </c>
       <c r="C43">
-        <v>0.32600000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D43">
-        <v>0.16700000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E43">
-        <v>0.125</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F43">
-        <v>0.19900000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="G43">
-        <v>0.36899999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="H43">
-        <v>0.41799999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="I43">
-        <v>8.3000000000000004E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J43">
-        <v>0.126</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K43">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L43">
-        <v>0.47199999999999998</v>
+        <v>0.436</v>
       </c>
       <c r="M43">
-        <v>0.56999999999999995</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N43">
-        <v>4.1000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O43">
-        <v>0.217</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="P43">
-        <v>6.3E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q43">
-        <v>0.69799999999999995</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="R43">
-        <v>0.123</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="S43">
-        <v>0.104</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="T43">
-        <v>0.88800000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U43">
-        <v>0.58699999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="V43">
         <v>0.36099999999999999</v>
       </c>
       <c r="W43">
-        <v>0.20399999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="X43">
         <v>9.2999999999999999E-2</v>
@@ -4018,64 +4149,64 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B44" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="C44">
+        <v>0.435</v>
+      </c>
+      <c r="D44">
+        <v>0.157</v>
+      </c>
+      <c r="E44">
         <v>0.115</v>
       </c>
-      <c r="C44">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D44">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="E44">
-        <v>0.122</v>
-      </c>
       <c r="F44">
-        <v>0.20599999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="G44">
-        <v>0.34599999999999997</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="H44">
-        <v>0.45200000000000001</v>
+        <v>0.503</v>
       </c>
       <c r="I44">
-        <v>8.3000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="J44">
-        <v>0.157</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="K44">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L44">
-        <v>0.45400000000000001</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="M44">
-        <v>0.58399999999999996</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="N44">
         <v>0.04</v>
       </c>
       <c r="O44">
-        <v>0.19600000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="P44">
-        <v>7.1999999999999995E-2</v>
+        <v>0.109</v>
       </c>
       <c r="Q44">
-        <v>0.70799999999999996</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="R44">
-        <v>0.14099999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="S44">
-        <v>9.7000000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="T44">
-        <v>0.88700000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U44">
         <v>0.58799999999999997</v>
@@ -4095,61 +4226,61 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B45" s="1">
-        <v>0.122</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C45">
-        <v>0.39700000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D45">
-        <v>0.16</v>
+        <v>0.153</v>
       </c>
       <c r="E45">
-        <v>0.11899999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="F45">
-        <v>0.215</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G45">
-        <v>0.32400000000000001</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H45">
-        <v>0.48099999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="I45">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="J45">
-        <v>0.20799999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="K45">
-        <v>5.1999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L45">
-        <v>0.436</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="M45">
-        <v>0.59799999999999998</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="N45">
         <v>0.04</v>
       </c>
       <c r="O45">
-        <v>0.17699999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P45">
-        <v>8.5999999999999993E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q45">
-        <v>0.71799999999999997</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="R45">
-        <v>0.16600000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="S45">
-        <v>9.1999999999999998E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="T45">
         <v>0.88600000000000001</v>
@@ -4164,7 +4295,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="X45">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Y45">
         <v>3.3000000000000002E-2</v>
@@ -4172,76 +4303,76 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B46" s="1">
-        <v>0.129</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="C46">
-        <v>0.435</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D46">
-        <v>0.157</v>
+        <v>0.15</v>
       </c>
       <c r="E46">
-        <v>0.115</v>
+        <v>0.104</v>
       </c>
       <c r="F46">
-        <v>0.223</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="G46">
-        <v>0.30199999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="H46">
-        <v>0.503</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="I46">
-        <v>8.5999999999999993E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="J46">
-        <v>0.27400000000000002</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="K46">
-        <v>5.2999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="L46">
-        <v>0.41599999999999998</v>
+        <v>0.374</v>
       </c>
       <c r="M46">
-        <v>0.60899999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="N46">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O46">
-        <v>0.158</v>
+        <v>0.124</v>
       </c>
       <c r="P46">
-        <v>0.109</v>
+        <v>0.192</v>
       </c>
       <c r="Q46">
-        <v>0.72599999999999998</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="R46">
-        <v>0.19800000000000001</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="S46">
-        <v>8.7999999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="T46">
-        <v>0.88600000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U46">
         <v>0.58799999999999997</v>
       </c>
       <c r="V46">
-        <v>0.36099999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="W46">
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="X46">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Y46">
         <v>3.3000000000000002E-2</v>
@@ -4249,73 +4380,73 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B47" s="1">
-        <v>0.13400000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="C47">
-        <v>0.46800000000000003</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D47">
-        <v>0.153</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E47">
-        <v>0.109</v>
+        <v>0.1</v>
       </c>
       <c r="F47">
-        <v>0.22900000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="G47">
-        <v>0.27900000000000003</v>
+        <v>0.245</v>
       </c>
       <c r="H47">
-        <v>0.52</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="I47">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="J47">
-        <v>0.34599999999999997</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="K47">
-        <v>5.5E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L47">
-        <v>0.39400000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="M47">
-        <v>0.61699999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="N47">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O47">
-        <v>0.14000000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="P47">
-        <v>0.14299999999999999</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="Q47">
-        <v>0.73199999999999998</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="R47">
-        <v>0.23499999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="S47">
-        <v>8.3000000000000004E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="T47">
-        <v>0.88600000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="U47">
-        <v>0.58799999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="V47">
-        <v>0.36099999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="W47">
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="X47">
         <v>9.1999999999999998E-2</v>
@@ -4326,70 +4457,70 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B48" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C48">
-        <v>0.49399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D48">
-        <v>0.15</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E48">
-        <v>0.104</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F48">
-        <v>0.23499999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="G48">
-        <v>0.26</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="H48">
-        <v>0.53200000000000003</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="I48">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J48">
-        <v>0.41499999999999998</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="K48">
-        <v>5.8999999999999997E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="L48">
-        <v>0.374</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="M48">
-        <v>0.624</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="N48">
-        <v>3.9E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O48">
-        <v>0.124</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="P48">
-        <v>0.192</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="Q48">
-        <v>0.73699999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="R48">
-        <v>0.27900000000000003</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="S48">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T48">
-        <v>0.88700000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="U48">
-        <v>0.58799999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="V48">
-        <v>0.36</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W48">
         <v>0.20399999999999999</v>
@@ -4403,76 +4534,76 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B49" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="C49">
-        <v>0.51400000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="D49">
-        <v>0.14699999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F49">
-        <v>0.24099999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="G49">
-        <v>0.245</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="H49">
-        <v>0.54300000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I49">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="K49">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J49">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="K49">
-        <v>6.5000000000000002E-2</v>
-      </c>
       <c r="L49">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="M49">
+        <v>0.64</v>
+      </c>
+      <c r="N49">
+        <v>0.04</v>
+      </c>
+      <c r="O49">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P49">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="Q49">
+        <v>0.749</v>
+      </c>
+      <c r="R49">
+        <v>0.46</v>
+      </c>
+      <c r="S49">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="T49">
+        <v>0.89</v>
+      </c>
+      <c r="U49">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="V49">
         <v>0.35799999999999998</v>
       </c>
-      <c r="M49">
-        <v>0.63</v>
-      </c>
-      <c r="N49">
-        <v>3.9E-2</v>
-      </c>
-      <c r="O49">
-        <v>0.111</v>
-      </c>
-      <c r="P49">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="Q49">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="R49">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="S49">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="T49">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="U49">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="V49">
-        <v>0.36</v>
-      </c>
       <c r="W49">
-        <v>0.20399999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X49">
-        <v>9.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="Y49">
         <v>3.3000000000000002E-2</v>
@@ -4480,76 +4611,76 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B50" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="C50">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D50">
-        <v>0.14399999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E50">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="F50">
-        <v>0.245</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G50">
-        <v>0.23400000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="H50">
-        <v>0.55200000000000005</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="I50">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="J50">
-        <v>0.51700000000000002</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="K50">
-        <v>7.3999999999999996E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="L50">
-        <v>0.34599999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="M50">
-        <v>0.63500000000000001</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="N50">
         <v>0.04</v>
       </c>
       <c r="O50">
-        <v>0.10100000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="P50">
-        <v>0.33200000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="Q50">
-        <v>0.746</v>
+        <v>0.753</v>
       </c>
       <c r="R50">
-        <v>0.39400000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="S50">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="T50">
-        <v>0.88900000000000001</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="U50">
-        <v>0.58599999999999997</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="V50">
-        <v>0.35899999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="W50">
-        <v>0.20399999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X50">
-        <v>9.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="Y50">
         <v>3.3000000000000002E-2</v>
@@ -4557,73 +4688,73 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B51" s="1">
-        <v>0.15</v>
+        <v>0.158</v>
       </c>
       <c r="C51">
-        <v>0.54100000000000004</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D51">
-        <v>0.14099999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E51">
-        <v>9.7000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F51">
-        <v>0.245</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G51">
-        <v>0.22600000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="H51">
-        <v>0.56000000000000005</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="I51">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J51">
-        <v>0.54700000000000004</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="K51">
-        <v>8.5999999999999993E-2</v>
+        <v>0.113</v>
       </c>
       <c r="L51">
-        <v>0.33700000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="M51">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="N51">
         <v>0.04</v>
       </c>
       <c r="O51">
-        <v>9.4E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="P51">
-        <v>0.41299999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q51">
-        <v>0.749</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="R51">
-        <v>0.46</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S51">
-        <v>7.3999999999999996E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="T51">
-        <v>0.89</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="U51">
-        <v>0.58599999999999997</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="V51">
-        <v>0.35799999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="W51">
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="X51">
         <v>9.0999999999999998E-2</v>
@@ -4634,58 +4765,58 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B52" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C52">
-        <v>0.55000000000000004</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D52">
-        <v>0.13700000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E52">
-        <v>9.8000000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F52">
-        <v>0.24299999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="G52">
-        <v>0.221</v>
+        <v>0.215</v>
       </c>
       <c r="H52">
-        <v>0.56599999999999995</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="I52">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K52">
+        <v>0.126</v>
+      </c>
+      <c r="L52">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="N52">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O52">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J52">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="K52">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="L52">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="M52">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="N52">
-        <v>0.04</v>
-      </c>
-      <c r="O52">
-        <v>8.8999999999999996E-2</v>
-      </c>
       <c r="P52">
-        <v>0.48599999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="Q52">
-        <v>0.753</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="R52">
-        <v>0.52200000000000002</v>
+        <v>0.628</v>
       </c>
       <c r="S52">
         <v>7.2999999999999995E-2</v>
@@ -4694,16 +4825,16 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="U52">
-        <v>0.58499999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="V52">
-        <v>0.35699999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="W52">
-        <v>0.20300000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="X52">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Y52">
         <v>3.3000000000000002E-2</v>
@@ -4711,58 +4842,58 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B53" s="1">
-        <v>0.158</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C53">
-        <v>0.55700000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D53">
-        <v>0.13300000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="E53">
-        <v>0.1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F53">
-        <v>0.24299999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="G53">
-        <v>0.217</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="H53">
-        <v>0.57199999999999995</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="I53">
-        <v>8.5000000000000006E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J53">
-        <v>0.58199999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="K53">
-        <v>0.113</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="L53">
-        <v>0.32800000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="M53">
-        <v>0.65</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="N53">
-        <v>0.04</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="O53">
-        <v>8.5999999999999993E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="P53">
-        <v>0.55000000000000004</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="Q53">
-        <v>0.75700000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="R53">
-        <v>0.57999999999999996</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="S53">
         <v>7.2999999999999995E-2</v>
@@ -4771,16 +4902,16 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="U53">
-        <v>0.58399999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="V53">
-        <v>0.35599999999999998</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="W53">
-        <v>0.20200000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="X53">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Y53">
         <v>3.3000000000000002E-2</v>
@@ -4788,73 +4919,73 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B54" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="C54">
-        <v>0.56399999999999995</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D54">
-        <v>0.13</v>
+        <v>0.123</v>
       </c>
       <c r="E54">
-        <v>0.1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F54">
-        <v>0.247</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G54">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="H54">
-        <v>0.57799999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="I54">
-        <v>8.7999999999999995E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J54">
-        <v>0.59099999999999997</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="K54">
-        <v>0.126</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="L54">
-        <v>0.32500000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="M54">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="N54">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O54">
+        <v>0.08</v>
+      </c>
+      <c r="P54">
         <v>0.65400000000000003</v>
       </c>
-      <c r="N54">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="O54">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P54">
-        <v>0.59799999999999998</v>
-      </c>
       <c r="Q54">
-        <v>0.76100000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="R54">
-        <v>0.628</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="S54">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="T54">
-        <v>0.89100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="U54">
-        <v>0.58299999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V54">
-        <v>0.35499999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="W54">
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="X54">
         <v>0.09</v>
@@ -4865,73 +4996,73 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B55" s="1">
-        <v>0.16700000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="C55">
-        <v>0.56899999999999995</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D55">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="E55">
-        <v>9.9000000000000005E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F55">
-        <v>0.254</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="G55">
-        <v>0.21199999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="H55">
-        <v>0.58299999999999996</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="I55">
-        <v>9.1999999999999998E-2</v>
+        <v>0.105</v>
       </c>
       <c r="J55">
-        <v>0.59699999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="K55">
-        <v>0.13800000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="L55">
-        <v>0.32200000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="M55">
-        <v>0.65800000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="N55">
-        <v>4.1000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="O55">
-        <v>8.2000000000000003E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="P55">
-        <v>0.63100000000000001</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="Q55">
-        <v>0.76500000000000001</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="R55">
-        <v>0.66600000000000004</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="S55">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="T55">
-        <v>0.89100000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="U55">
-        <v>0.58099999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="V55">
-        <v>0.35399999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="W55">
-        <v>0.20100000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="X55">
         <v>0.09</v>
@@ -4942,76 +5073,76 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B56" s="1">
-        <v>0.17299999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="C56">
-        <v>0.57399999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="D56">
-        <v>0.123</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="E56">
-        <v>9.7000000000000003E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F56">
-        <v>0.26900000000000002</v>
+        <v>0.318</v>
       </c>
       <c r="G56">
-        <v>0.21</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="H56">
-        <v>0.58699999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="I56">
-        <v>9.8000000000000004E-2</v>
+        <v>0.111</v>
       </c>
       <c r="J56">
-        <v>0.60099999999999998</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="K56">
-        <v>0.14899999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="L56">
-        <v>0.32</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="M56">
-        <v>0.66200000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="N56">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O56">
-        <v>0.08</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="P56">
-        <v>0.65400000000000003</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="Q56">
-        <v>0.76800000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="R56">
-        <v>0.69599999999999995</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="S56">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="T56">
-        <v>0.89</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="U56">
-        <v>0.57999999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="V56">
-        <v>0.35299999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="W56">
-        <v>0.2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="X56">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="Y56">
         <v>3.3000000000000002E-2</v>
@@ -5019,76 +5150,76 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B57" s="1">
-        <v>0.18</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="C57">
-        <v>0.58199999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D57">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="E57">
-        <v>9.6000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F57">
-        <v>0.29099999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="G57">
         <v>0.20899999999999999</v>
       </c>
       <c r="H57">
-        <v>0.59299999999999997</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="I57">
-        <v>0.105</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J57">
-        <v>0.60399999999999998</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="K57">
-        <v>0.161</v>
+        <v>0.182</v>
       </c>
       <c r="L57">
-        <v>0.31900000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="M57">
-        <v>0.66700000000000004</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="N57">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="O57">
-        <v>7.8E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="P57">
-        <v>0.67200000000000004</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="Q57">
-        <v>0.77200000000000002</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="R57">
-        <v>0.72199999999999998</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="S57">
-        <v>7.2999999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T57">
         <v>0.88900000000000001</v>
       </c>
       <c r="U57">
-        <v>0.57899999999999996</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="V57">
-        <v>0.35199999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="W57">
-        <v>0.19900000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="X57">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="Y57">
         <v>3.3000000000000002E-2</v>
@@ -5096,73 +5227,73 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B58" s="1">
-        <v>0.188</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C58">
-        <v>0.59</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D58">
-        <v>0.11799999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="E58">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="F58">
-        <v>0.318</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G58">
-        <v>0.20799999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H58">
-        <v>0.59899999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="I58">
-        <v>0.111</v>
+        <v>0.123</v>
       </c>
       <c r="J58">
         <v>0.60699999999999998</v>
       </c>
       <c r="K58">
-        <v>0.17199999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="L58">
-        <v>0.31900000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="M58">
-        <v>0.67200000000000004</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="N58">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="O58">
-        <v>7.6999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="P58">
-        <v>0.68600000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="Q58">
-        <v>0.77700000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="R58">
-        <v>0.74199999999999999</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="S58">
-        <v>7.3999999999999996E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="T58">
         <v>0.88900000000000001</v>
       </c>
       <c r="U58">
-        <v>0.57799999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="V58">
-        <v>0.35099999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="W58">
-        <v>0.19800000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="X58">
         <v>8.8999999999999996E-2</v>
@@ -5173,76 +5304,76 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B59" s="1">
-        <v>0.19600000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="C59">
-        <v>0.59699999999999998</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D59">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="E59">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F59">
-        <v>0.35099999999999998</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G59">
-        <v>0.20899999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="H59">
-        <v>0.60199999999999998</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="I59">
-        <v>0.11799999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="J59">
-        <v>0.60799999999999998</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="K59">
-        <v>0.182</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="L59">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="M59">
-        <v>0.67500000000000004</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="N59">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="O59">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P59">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Q59">
+        <v>0.78</v>
+      </c>
+      <c r="R59">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="S59">
         <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="P59">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="Q59">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="R59">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="S59">
-        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T59">
         <v>0.88900000000000001</v>
       </c>
       <c r="U59">
-        <v>0.57699999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="V59">
-        <v>0.35</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="W59">
-        <v>0.19800000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="X59">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Y59">
         <v>3.3000000000000002E-2</v>
@@ -5250,76 +5381,76 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B60" s="1">
-        <v>0.20399999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="C60">
+        <v>0.624</v>
+      </c>
+      <c r="D60">
+        <v>0.108</v>
+      </c>
+      <c r="E60">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.22</v>
+      </c>
+      <c r="H60">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="I60">
+        <v>0.126</v>
+      </c>
+      <c r="J60">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D60">
-        <v>0.112</v>
-      </c>
-      <c r="E60">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F60">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="G60">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="H60">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="I60">
-        <v>0.123</v>
-      </c>
-      <c r="J60">
-        <v>0.60699999999999998</v>
-      </c>
       <c r="K60">
-        <v>0.193</v>
+        <v>0.217</v>
       </c>
       <c r="L60">
-        <v>0.32400000000000001</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="M60">
-        <v>0.67600000000000005</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="N60">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="O60">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P60">
-        <v>0.7</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="Q60">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="R60">
         <v>0.78</v>
       </c>
-      <c r="R60">
-        <v>0.76600000000000001</v>
-      </c>
       <c r="S60">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="T60">
-        <v>0.88900000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="U60">
-        <v>0.57599999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="V60">
-        <v>0.34899999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="W60">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="X60">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Y60">
         <v>3.3000000000000002E-2</v>
@@ -5327,73 +5458,73 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B61" s="1">
-        <v>0.21299999999999999</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="C61">
-        <v>0.61399999999999999</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D61">
+        <v>0.106</v>
+      </c>
+      <c r="E61">
         <v>0.11</v>
       </c>
-      <c r="E61">
-        <v>9.7000000000000003E-2</v>
-      </c>
       <c r="F61">
-        <v>0.41699999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="G61">
-        <v>0.215</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H61">
-        <v>0.60599999999999998</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="I61">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="J61">
-        <v>0.60599999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="K61">
-        <v>0.20499999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="L61">
-        <v>0.33</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="M61">
-        <v>0.67700000000000005</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="N61">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="O61">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="P61">
-        <v>0.70399999999999996</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="Q61">
-        <v>0.78</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="R61">
-        <v>0.77400000000000002</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="S61">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="T61">
-        <v>0.88900000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="U61">
-        <v>0.57499999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="V61">
-        <v>0.34799999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="W61">
-        <v>0.19700000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="X61">
         <v>8.7999999999999995E-2</v>
@@ -5404,76 +5535,76 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B62" s="1">
-        <v>0.222</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C62">
-        <v>0.624</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D62">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
       <c r="E62">
-        <v>0.10100000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="F62">
-        <v>0.44600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="G62">
-        <v>0.22</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H62">
-        <v>0.60799999999999998</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I62">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="J62">
         <v>0.60499999999999998</v>
       </c>
       <c r="K62">
-        <v>0.217</v>
+        <v>0.248</v>
       </c>
       <c r="L62">
-        <v>0.33700000000000002</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="M62">
-        <v>0.67800000000000005</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="N62">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O62">
+        <v>7.8E-2</v>
+      </c>
+      <c r="P62">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="Q62">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="R62">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="S62">
         <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="P62">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="Q62">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="R62">
-        <v>0.78</v>
-      </c>
-      <c r="S62">
-        <v>7.6999999999999999E-2</v>
       </c>
       <c r="T62">
         <v>0.88800000000000001</v>
       </c>
       <c r="U62">
-        <v>0.57399999999999995</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="V62">
-        <v>0.34599999999999997</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="W62">
-        <v>0.19600000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="X62">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Y62">
         <v>3.3000000000000002E-2</v>
@@ -5481,76 +5612,76 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B63" s="1">
-        <v>0.23100000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="C63">
-        <v>0.63700000000000001</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="D63">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="E63">
-        <v>0.11</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F63">
-        <v>0.47</v>
+        <v>0.504</v>
       </c>
       <c r="G63">
-        <v>0.22700000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="H63">
-        <v>0.61099999999999999</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="I63">
-        <v>0.124</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J63">
-        <v>0.60499999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="K63">
-        <v>0.23200000000000001</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="L63">
-        <v>0.34499999999999997</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="M63">
-        <v>0.68100000000000005</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="N63">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O63">
-        <v>7.6999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P63">
-        <v>0.71199999999999997</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="Q63">
-        <v>0.78200000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="R63">
-        <v>0.78500000000000003</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="S63">
-        <v>7.5999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="T63">
         <v>0.88800000000000001</v>
       </c>
       <c r="U63">
-        <v>0.57299999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="V63">
-        <v>0.34599999999999997</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="W63">
-        <v>0.19500000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="X63">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Y63">
         <v>3.3000000000000002E-2</v>
@@ -5558,230 +5689,230 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B64" s="1">
-        <v>0.24199999999999999</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="C64">
-        <v>0.65200000000000002</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="D64">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="E64">
-        <v>0.125</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F64">
-        <v>0.49</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="G64">
-        <v>0.23300000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H64">
-        <v>0.61499999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="I64">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="J64">
         <v>0.60499999999999998</v>
       </c>
       <c r="K64">
-        <v>0.248</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="L64">
-        <v>0.35399999999999998</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="M64">
-        <v>0.68500000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="N64">
-        <v>4.3999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O64">
-        <v>7.8E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="P64">
-        <v>0.71799999999999997</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="Q64">
-        <v>0.78500000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="R64">
-        <v>0.79100000000000004</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="S64">
-        <v>7.4999999999999997E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="T64">
         <v>0.88800000000000001</v>
       </c>
       <c r="U64">
-        <v>0.57199999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="V64">
-        <v>0.34499999999999997</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="W64">
-        <v>0.19500000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="X64">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="Y64">
-        <v>3.3000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B65" s="1">
-        <v>0.251</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C65">
-        <v>0.66800000000000004</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="D65">
-        <v>0.104</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E65">
-        <v>0.14699999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="F65">
-        <v>0.504</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="G65">
-        <v>0.23899999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="H65">
-        <v>0.61899999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="I65">
-        <v>0.11700000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="J65">
-        <v>0.60399999999999998</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="K65">
-        <v>0.26600000000000001</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="L65">
-        <v>0.36199999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="M65">
-        <v>0.68799999999999994</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="N65">
-        <v>4.3999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="O65">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P65">
-        <v>0.72099999999999997</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="Q65">
-        <v>0.78500000000000003</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="R65">
-        <v>0.79400000000000004</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="S65">
-        <v>7.3999999999999996E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="T65">
         <v>0.88800000000000001</v>
       </c>
       <c r="U65">
-        <v>0.57099999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="V65">
-        <v>0.34399999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="W65">
-        <v>0.19400000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="X65">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="Y65">
-        <v>3.3000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B66" s="1">
-        <v>0.26100000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="C66">
-        <v>0.68200000000000005</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="D66">
-        <v>0.104</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E66">
-        <v>0.17399999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="F66">
-        <v>0.51100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G66">
-        <v>0.24399999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="H66">
-        <v>0.622</v>
+        <v>0.628</v>
       </c>
       <c r="I66">
-        <v>0.115</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J66">
-        <v>0.60499999999999998</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="K66">
-        <v>0.28199999999999997</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="L66">
-        <v>0.36799999999999999</v>
+        <v>0.379</v>
       </c>
       <c r="M66">
-        <v>0.69</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="N66">
-        <v>4.4999999999999998E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O66">
-        <v>8.2000000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="P66">
-        <v>0.72399999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="Q66">
-        <v>0.78700000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="R66">
-        <v>0.79800000000000004</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="S66">
-        <v>7.3999999999999996E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="T66">
         <v>0.88800000000000001</v>
       </c>
       <c r="U66">
-        <v>0.56999999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="V66">
-        <v>0.34300000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="W66">
-        <v>0.19400000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="X66">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Y66">
         <v>3.2000000000000001E-2</v>
@@ -5789,76 +5920,76 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B67" s="1">
-        <v>0.27100000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="C67">
-        <v>0.69699999999999995</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="D67">
-        <v>0.10299999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E67">
-        <v>0.21</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F67">
-        <v>0.51700000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="G67">
-        <v>0.249</v>
+        <v>0.252</v>
       </c>
       <c r="H67">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="I67">
-        <v>0.115</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J67">
-        <v>0.60599999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="K67">
-        <v>0.30099999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="L67">
-        <v>0.375</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="M67">
-        <v>0.69299999999999995</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="N67">
-        <v>4.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O67">
-        <v>8.5000000000000006E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="P67">
-        <v>0.72699999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="Q67">
-        <v>0.78900000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="R67">
-        <v>0.80100000000000005</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="S67">
-        <v>7.2999999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="T67">
-        <v>0.88800000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="U67">
-        <v>0.56899999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="V67">
-        <v>0.34200000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="W67">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="X67">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Y67">
         <v>3.2000000000000001E-2</v>
@@ -5866,73 +5997,73 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B68" s="1">
-        <v>0.28199999999999997</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C68">
-        <v>0.71299999999999997</v>
+        <v>0.745</v>
       </c>
       <c r="D68">
-        <v>0.10299999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E68">
-        <v>0.247</v>
+        <v>0.311</v>
       </c>
       <c r="F68">
-        <v>0.52</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="G68">
-        <v>0.252</v>
+        <v>0.25</v>
       </c>
       <c r="H68">
-        <v>0.628</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="I68">
-        <v>0.11600000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="J68">
-        <v>0.60599999999999998</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="K68">
-        <v>0.31900000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="L68">
         <v>0.379</v>
       </c>
       <c r="M68">
-        <v>0.69599999999999995</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="N68">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="O68">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="P68">
-        <v>0.72899999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="Q68">
-        <v>0.79200000000000004</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="R68">
-        <v>0.80400000000000005</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="S68">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="T68">
-        <v>0.88800000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U68">
-        <v>0.56799999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="V68">
-        <v>0.34100000000000003</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="W68">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="X68">
         <v>8.5999999999999993E-2</v>
@@ -5943,73 +6074,73 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B69" s="1">
-        <v>0.29399999999999998</v>
+        <v>0.318</v>
       </c>
       <c r="C69">
-        <v>0.72799999999999998</v>
+        <v>0.753</v>
       </c>
       <c r="D69">
         <v>0.10199999999999999</v>
       </c>
       <c r="E69">
-        <v>0.28299999999999997</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F69">
         <v>0.52200000000000002</v>
       </c>
       <c r="G69">
-        <v>0.252</v>
+        <v>0.248</v>
       </c>
       <c r="H69">
-        <v>0.63</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="I69">
-        <v>0.11799999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="J69">
-        <v>0.60399999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="K69">
-        <v>0.33800000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="L69">
-        <v>0.38100000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="M69">
         <v>0.69799999999999995</v>
       </c>
       <c r="N69">
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="O69">
-        <v>8.8999999999999996E-2</v>
+        <v>0.09</v>
       </c>
       <c r="P69">
-        <v>0.73</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="Q69">
         <v>0.79200000000000004</v>
       </c>
       <c r="R69">
-        <v>0.80600000000000005</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="S69">
-        <v>7.1999999999999995E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="T69">
-        <v>0.88700000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="U69">
-        <v>0.56699999999999995</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="V69">
-        <v>0.34</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="W69">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="X69">
         <v>8.5999999999999993E-2</v>
@@ -6020,76 +6151,76 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B70" s="1">
-        <v>0.30499999999999999</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="C70">
-        <v>0.745</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D70">
         <v>0.10199999999999999</v>
       </c>
       <c r="E70">
-        <v>0.311</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="F70">
-        <v>0.52300000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="G70">
-        <v>0.25</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H70">
         <v>0.63300000000000001</v>
       </c>
       <c r="I70">
-        <v>0.12</v>
+        <v>0.128</v>
       </c>
       <c r="J70">
-        <v>0.60199999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="K70">
-        <v>0.35499999999999998</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="L70">
-        <v>0.379</v>
+        <v>0.373</v>
       </c>
       <c r="M70">
         <v>0.69799999999999995</v>
       </c>
       <c r="N70">
-        <v>5.0999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="O70">
-        <v>8.8999999999999996E-2</v>
+        <v>0.09</v>
       </c>
       <c r="P70">
-        <v>0.73</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="Q70">
-        <v>0.79300000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="R70">
         <v>0.80700000000000005</v>
       </c>
       <c r="S70">
-        <v>7.0999999999999994E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T70">
         <v>0.88600000000000001</v>
       </c>
       <c r="U70">
-        <v>0.56599999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="V70">
-        <v>0.33900000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="W70">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="X70">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Y70">
         <v>3.2000000000000001E-2</v>
@@ -6097,76 +6228,76 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B71" s="1">
-        <v>0.318</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C71">
-        <v>0.753</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="D71">
         <v>0.10199999999999999</v>
       </c>
       <c r="E71">
-        <v>0.32900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F71">
-        <v>0.52200000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="G71">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="H71">
-        <v>0.63300000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="I71">
-        <v>0.124</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="J71">
-        <v>0.60099999999999998</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="K71">
-        <v>0.371</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="L71">
-        <v>0.376</v>
+        <v>0.372</v>
       </c>
       <c r="M71">
-        <v>0.69799999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="N71">
-        <v>5.2999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O71">
         <v>0.09</v>
       </c>
       <c r="P71">
-        <v>0.72899999999999998</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q71">
         <v>0.79200000000000004</v>
       </c>
       <c r="R71">
-        <v>0.80700000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="S71">
-        <v>7.2999999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="T71">
-        <v>0.88600000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="U71">
-        <v>0.56499999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="V71">
-        <v>0.33800000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="W71">
-        <v>0.191</v>
+        <v>0.189</v>
       </c>
       <c r="X71">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Y71">
         <v>3.2000000000000001E-2</v>
@@ -6174,73 +6305,73 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B72" s="1">
-        <v>0.33400000000000002</v>
+        <v>0.372</v>
       </c>
       <c r="C72">
-        <v>0.76200000000000001</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D72">
         <v>0.10199999999999999</v>
       </c>
       <c r="E72">
-        <v>0.34300000000000003</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F72">
-        <v>0.52100000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="G72">
-        <v>0.24399999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="H72">
-        <v>0.63300000000000001</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="I72">
-        <v>0.128</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="J72">
-        <v>0.59899999999999998</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="K72">
-        <v>0.38800000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="L72">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="M72">
-        <v>0.69799999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="N72">
-        <v>5.6000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="O72">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="P72">
-        <v>0.72699999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="Q72">
-        <v>0.79</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="R72">
-        <v>0.80700000000000005</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="S72">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="T72">
-        <v>0.88600000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="U72">
-        <v>0.56399999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="V72">
-        <v>0.33700000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="W72">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
       <c r="X72">
         <v>8.5000000000000006E-2</v>
@@ -6251,73 +6382,73 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B73" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="C73">
-        <v>0.77400000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="D73">
-        <v>0.10199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="E73">
-        <v>0.35299999999999998</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="F73">
         <v>0.52100000000000002</v>
       </c>
       <c r="G73">
-        <v>0.245</v>
+        <v>0.251</v>
       </c>
       <c r="H73">
-        <v>0.63600000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="I73">
-        <v>0.13300000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J73">
-        <v>0.59799999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="K73">
-        <v>0.40600000000000003</v>
+        <v>0.436</v>
       </c>
       <c r="L73">
-        <v>0.372</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="M73">
-        <v>0.7</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="N73">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O73">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="P73">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="Q73">
+        <v>0.79</v>
+      </c>
+      <c r="R73">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="S73">
         <v>0.09</v>
-      </c>
-      <c r="P73">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="Q73">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="R73">
-        <v>0.81</v>
-      </c>
-      <c r="S73">
-        <v>7.8E-2</v>
       </c>
       <c r="T73">
         <v>0.88500000000000001</v>
       </c>
       <c r="U73">
-        <v>0.56200000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V73">
-        <v>0.33600000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="W73">
-        <v>0.189</v>
+        <v>0.188</v>
       </c>
       <c r="X73">
         <v>8.5000000000000006E-2</v>
@@ -6328,73 +6459,73 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B74" s="1">
-        <v>0.372</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C74">
-        <v>0.78300000000000003</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="D74">
-        <v>0.10199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="E74">
-        <v>0.35799999999999998</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F74">
-        <v>0.52200000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="G74">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="H74">
-        <v>0.63700000000000001</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="I74">
-        <v>0.13900000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="J74">
-        <v>0.59599999999999997</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="K74">
-        <v>0.42199999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="L74">
-        <v>0.375</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="M74">
         <v>0.70099999999999996</v>
       </c>
       <c r="N74">
-        <v>6.4000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="O74">
-        <v>8.8999999999999996E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="P74">
-        <v>0.72899999999999998</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="Q74">
-        <v>0.79200000000000004</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="R74">
         <v>0.81299999999999994</v>
       </c>
       <c r="S74">
-        <v>8.2000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="T74">
-        <v>0.88500000000000001</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="U74">
-        <v>0.56200000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V74">
-        <v>0.33500000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="W74">
-        <v>0.189</v>
+        <v>0.188</v>
       </c>
       <c r="X74">
         <v>8.5000000000000006E-2</v>
@@ -6405,76 +6536,76 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="B75" s="1">
-        <v>0.39200000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="C75">
-        <v>0.78800000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="D75">
         <v>0.104</v>
       </c>
       <c r="E75">
-        <v>0.36199999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="F75">
-        <v>0.52100000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="G75">
-        <v>0.251</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="H75">
-        <v>0.63900000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="I75">
-        <v>0.14899999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="J75">
-        <v>0.59499999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="K75">
-        <v>0.436</v>
+        <v>0.46</v>
       </c>
       <c r="L75">
-        <v>0.38200000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="M75">
-        <v>0.70099999999999996</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="N75">
-        <v>7.0000000000000007E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="O75">
-        <v>9.1999999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="P75">
-        <v>0.72899999999999998</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="Q75">
-        <v>0.79</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="R75">
-        <v>0.81399999999999995</v>
+        <v>0.81</v>
       </c>
       <c r="S75">
-        <v>0.09</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="T75">
-        <v>0.88500000000000001</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="U75">
-        <v>0.56000000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="V75">
-        <v>0.33400000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="W75">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="X75">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="Y75">
         <v>3.2000000000000001E-2</v>
@@ -6482,76 +6613,76 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B76" s="1">
-        <v>0.40899999999999997</v>
+        <v>0.436</v>
       </c>
       <c r="C76">
-        <v>0.79100000000000004</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="D76">
         <v>0.104</v>
       </c>
       <c r="E76">
-        <v>0.36399999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="F76">
-        <v>0.52100000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G76">
-        <v>0.26</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="H76">
-        <v>0.63800000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="I76">
-        <v>0.16200000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="J76">
-        <v>0.59299999999999997</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="K76">
-        <v>0.45100000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="L76">
-        <v>0.39200000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="M76">
-        <v>0.70099999999999996</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="N76">
-        <v>7.9000000000000001E-2</v>
+        <v>0.104</v>
       </c>
       <c r="O76">
-        <v>9.4E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="P76">
-        <v>0.72699999999999998</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="Q76">
-        <v>0.78700000000000003</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="R76">
-        <v>0.81299999999999994</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="S76">
-        <v>0.1</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="T76">
-        <v>0.88400000000000001</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="U76">
-        <v>0.56000000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="V76">
-        <v>0.33300000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="W76">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="X76">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="Y76">
         <v>3.2000000000000001E-2</v>
@@ -6559,73 +6690,73 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="B77" s="1">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="C77">
-        <v>0.78700000000000003</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="D77">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="E77">
-        <v>0.36</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F77">
-        <v>0.51600000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G77">
-        <v>0.26900000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H77">
-        <v>0.63300000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="I77">
-        <v>0.17799999999999999</v>
+        <v>0.219</v>
       </c>
       <c r="J77">
-        <v>0.58699999999999997</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="K77">
-        <v>0.46</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="L77">
-        <v>0.40100000000000002</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="M77">
-        <v>0.69499999999999995</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="N77">
-        <v>9.0999999999999998E-2</v>
+        <v>0.12</v>
       </c>
       <c r="O77">
-        <v>9.7000000000000003E-2</v>
+        <v>0.106</v>
       </c>
       <c r="P77">
-        <v>0.72299999999999998</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="Q77">
-        <v>0.78200000000000003</v>
+        <v>0.78</v>
       </c>
       <c r="R77">
-        <v>0.81</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="S77">
-        <v>0.11600000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="T77">
-        <v>0.88400000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="U77">
-        <v>0.55800000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="V77">
-        <v>0.33200000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="W77">
-        <v>0.187</v>
+        <v>0.186</v>
       </c>
       <c r="X77">
         <v>8.4000000000000005E-2</v>
@@ -6636,73 +6767,73 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B78" s="1">
-        <v>0.436</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C78">
-        <v>0.78900000000000003</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="D78">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="E78">
-        <v>0.36199999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="F78">
-        <v>0.51400000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="G78">
-        <v>0.27800000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="H78">
-        <v>0.63300000000000001</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="I78">
-        <v>0.19700000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="J78">
-        <v>0.58399999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="K78">
-        <v>0.47099999999999997</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="L78">
-        <v>0.41199999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="M78">
-        <v>0.69399999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="N78">
-        <v>0.104</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="O78">
-        <v>0.10199999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="P78">
-        <v>0.72099999999999997</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q78">
-        <v>0.77800000000000002</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="R78">
-        <v>0.80800000000000005</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="S78">
-        <v>0.13300000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="T78">
-        <v>0.88300000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="U78">
-        <v>0.55700000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="V78">
-        <v>0.33100000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="W78">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="X78">
         <v>8.4000000000000005E-2</v>
@@ -6713,73 +6844,73 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="B79" s="1">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C79">
-        <v>0.79400000000000004</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="D79">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="E79">
-        <v>0.36399999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="F79">
-        <v>0.51400000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G79">
-        <v>0.28799999999999998</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H79">
-        <v>0.63600000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="I79">
-        <v>0.219</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="J79">
         <v>0.58399999999999996</v>
       </c>
       <c r="K79">
-        <v>0.48099999999999998</v>
+        <v>0.495</v>
       </c>
       <c r="L79">
-        <v>0.42199999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="M79">
-        <v>0.69599999999999995</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="N79">
-        <v>0.12</v>
+        <v>0.154</v>
       </c>
       <c r="O79">
-        <v>0.106</v>
+        <v>0.111</v>
       </c>
       <c r="P79">
-        <v>0.72399999999999998</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="Q79">
-        <v>0.78</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="R79">
-        <v>0.81100000000000005</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="S79">
-        <v>0.154</v>
+        <v>0.191</v>
       </c>
       <c r="T79">
-        <v>0.88200000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="U79">
-        <v>0.55600000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="V79">
-        <v>0.33</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="W79">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="X79">
         <v>8.4000000000000005E-2</v>
@@ -6790,76 +6921,76 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B80" s="1">
-        <v>0.46200000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="C80">
-        <v>0.80100000000000005</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="D80">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="E80">
-        <v>0.36799999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F80">
-        <v>0.51700000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G80">
         <v>0.29699999999999999</v>
       </c>
       <c r="H80">
-        <v>0.64100000000000001</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="I80">
-        <v>0.24199999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J80">
-        <v>0.58599999999999997</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="K80">
-        <v>0.49199999999999999</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="L80">
-        <v>0.433</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="M80">
-        <v>0.7</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="N80">
-        <v>0.13800000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="O80">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
       <c r="P80">
-        <v>0.72799999999999998</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="Q80">
-        <v>0.78200000000000003</v>
+        <v>0.752</v>
       </c>
       <c r="R80">
-        <v>0.81399999999999995</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="S80">
-        <v>0.17599999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="T80">
-        <v>0.88200000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="U80">
-        <v>0.55500000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="V80">
-        <v>0.32900000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="W80">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
       <c r="X80">
-        <v>8.4000000000000005E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Y80">
         <v>3.2000000000000001E-2</v>
@@ -6867,76 +6998,76 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="B81" s="1">
-        <v>0.46500000000000002</v>
+        <v>0.432</v>
       </c>
       <c r="C81">
-        <v>0.79900000000000004</v>
+        <v>0.747</v>
       </c>
       <c r="D81">
-        <v>0.107</v>
+        <v>0.115</v>
       </c>
       <c r="E81">
-        <v>0.36799999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="F81">
-        <v>0.51500000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="G81">
-        <v>0.30099999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="H81">
-        <v>0.63900000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="I81">
-        <v>0.25900000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="J81">
-        <v>0.58399999999999996</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="K81">
-        <v>0.495</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="L81">
-        <v>0.436</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="M81">
-        <v>0.69799999999999995</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="N81">
-        <v>0.154</v>
+        <v>0.186</v>
       </c>
       <c r="O81">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="P81">
-        <v>0.72699999999999998</v>
+        <v>0.68</v>
       </c>
       <c r="Q81">
-        <v>0.78100000000000003</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="R81">
-        <v>0.81299999999999994</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="S81">
-        <v>0.191</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="T81">
-        <v>0.88100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="U81">
-        <v>0.55400000000000005</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="V81">
-        <v>0.32800000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="W81">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
       <c r="X81">
-        <v>8.4000000000000005E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Y81">
         <v>3.2000000000000001E-2</v>
@@ -6944,232 +7075,78 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="B82" s="1">
-        <v>0.44800000000000001</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="C82">
-        <v>0.77100000000000002</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="D82">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E82">
-        <v>0.35499999999999998</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F82">
-        <v>0.5</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="G82">
-        <v>0.29699999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="H82">
-        <v>0.61599999999999999</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="I82">
-        <v>0.27500000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="J82">
-        <v>0.56599999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="K82">
-        <v>0.48199999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="L82">
-        <v>0.42599999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="M82">
-        <v>0.67300000000000004</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="N82">
-        <v>0.16800000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="O82">
         <v>0.112</v>
       </c>
       <c r="P82">
-        <v>0.70199999999999996</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="Q82">
+        <v>0.71</v>
+      </c>
+      <c r="R82">
         <v>0.752</v>
       </c>
-      <c r="R82">
-        <v>0.78500000000000003</v>
-      </c>
       <c r="S82">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="T82">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="U82">
-        <v>0.55300000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V82">
-        <v>0.32700000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="W82">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
       <c r="X82">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="Y82">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
-        <v>775</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0.432</v>
-      </c>
-      <c r="C83">
-        <v>0.747</v>
-      </c>
-      <c r="D83">
-        <v>0.115</v>
-      </c>
-      <c r="E83">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="F83">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="G83">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="H83">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="I83">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="J83">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="K83">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="L83">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="M83">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="N83">
-        <v>0.186</v>
-      </c>
-      <c r="O83">
-        <v>0.112</v>
-      </c>
-      <c r="P83">
-        <v>0.68</v>
-      </c>
-      <c r="Q83">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="R83">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="S83">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="T83">
-        <v>0.88</v>
-      </c>
-      <c r="U83">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="V83">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="W83">
-        <v>0.184</v>
-      </c>
-      <c r="X83">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="Y83">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
-        <v>780</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="C84">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="D84">
-        <v>0.12</v>
-      </c>
-      <c r="E84">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="F84">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="G84">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="H84">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="I84">
-        <v>0.316</v>
-      </c>
-      <c r="J84">
-        <v>0.54</v>
-      </c>
-      <c r="K84">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L84">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="M84">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="N84">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="O84">
-        <v>0.112</v>
-      </c>
-      <c r="P84">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="Q84">
-        <v>0.71</v>
-      </c>
-      <c r="R84">
-        <v>0.752</v>
-      </c>
-      <c r="S84">
-        <v>0.214</v>
-      </c>
-      <c r="T84">
-        <v>0.879</v>
-      </c>
-      <c r="U84">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V84">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="W84">
-        <v>0.183</v>
-      </c>
-      <c r="X84">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="Y84">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>

--- a/Assignment 6 CIELAB/MacbethColorChecker.xlsx
+++ b/Assignment 6 CIELAB/MacbethColorChecker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratheepkumarc/Documents/Development/Matlab/Principles-of-Color-Science/Assignment 6 CIELAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3DF020-ECAF-5443-AD9C-AE5CB5BB2A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CE0402-96EE-0F4F-B8A4-825561F60CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" tabRatio="292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>wavelength</t>
-  </si>
-  <si>
-    <t>Patch Numbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -68,10 +60,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,288 +146,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>500872</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1027" name="Group 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF48629-A345-294B-B2F0-B87DE17852BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18110200" y="165100"/>
-          <a:ext cx="4399772" cy="3124200"/>
-          <a:chOff x="1656" y="26"/>
-          <a:chExt cx="400" cy="246"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="1025" name="Picture 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166A33D6-E11F-A24D-883C-4614910B2F5A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1656" y="26"/>
-            <a:ext cx="351" cy="246"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="1026" name="Text Box 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E56F97D-A815-A04E-8D61-3F82FFC59C2D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1682" y="55"/>
-            <a:ext cx="374" cy="174"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>1           2        3         4          5        6</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>7        8           9       10         11       12</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>13       14       15       16       17      18</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>19      20        21        22       23       24       </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -833,7 +542,7 @@
     <col min="2" max="25" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,11 +618,8 @@
       <c r="Y1">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>380</v>
       </c>
@@ -990,7 +696,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>385</v>
       </c>
@@ -1067,7 +773,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>390</v>
       </c>
@@ -1144,7 +850,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>395</v>
       </c>
@@ -1221,7 +927,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>400</v>
       </c>
@@ -1298,7 +1004,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>405</v>
       </c>
@@ -1375,7 +1081,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>410</v>
       </c>
@@ -1452,7 +1158,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>415</v>
       </c>
@@ -1529,7 +1235,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>420</v>
       </c>
@@ -1606,7 +1312,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>425</v>
       </c>
@@ -1683,7 +1389,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>430</v>
       </c>
@@ -1760,7 +1466,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>435</v>
       </c>
@@ -1837,7 +1543,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>440</v>
       </c>
@@ -1914,7 +1620,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>445</v>
       </c>
@@ -1991,7 +1697,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>450</v>
       </c>
@@ -7151,9 +6857,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>